--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_newsample.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_newsample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7237A73-6C5F-AF43-9FF3-BB55E2E007CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D5BE85-F3B5-B34C-B79A-9422B56EA063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="9" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <author>TraceBase Dev Team</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C8F73FAE-0063-184D-AE84-904817F8C9D8}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{9DD3C0F6-643F-C646-9957-604AAD2D5A2E}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
             <rFont val="Courier"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">A 2 to 6 character unique readable alphanumeric code for the study, to be used
+          <t xml:space="preserve">A succinct name for the study, which is a collection of one or more series of
 </t>
         </r>
         <r>
@@ -65,17 +65,7 @@
             <rFont val="Courier"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">as a prefix for animal names, sample names, etc if necessary, to make them
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Courier"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">unique.
+          <t xml:space="preserve">animals and their associated data.
 </t>
         </r>
         <r>
@@ -115,27 +105,11 @@
             <rFont val="Courier"/>
             <family val="2"/>
           </rPr>
-          <t>Optional.</t>
+          <t>Required.</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{9DD3C0F6-643F-C646-9957-604AAD2D5A2E}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Courier"/>
-            <family val="2"/>
-          </rPr>
-          <t>A succinct name for the study, which is a collection of one or more series of
-animals and their associated data.
-Must be unique.
-Required.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{13ED60A2-33CC-984B-A004-5ADFF55D03F9}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{13ED60A2-33CC-984B-A004-5ADFF55D03F9}">
       <text>
         <r>
           <rPr>
@@ -1206,7 +1180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
   <si>
     <t>Infusate</t>
   </si>
@@ -1611,16 +1585,10 @@
     <t>1972-11-24</t>
   </si>
   <si>
-    <t>Study ID</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>A description</t>
-  </si>
-  <si>
-    <t>obob</t>
   </si>
   <si>
     <t>newsample</t>
@@ -2268,51 +2236,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C61425D-F23C-6F4F-8608-324522C2138E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14">
+    <row r="1" spans="1:2" ht="14">
       <c r="A1" s="22" t="s">
         <v>120</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>122</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="notContainsErrors" dxfId="7" priority="1">
+    <cfRule type="notContainsErrors" dxfId="6" priority="2">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="notContainsErrors" dxfId="6" priority="2">
+    <cfRule type="notContainsErrors" dxfId="5" priority="3">
       <formula>NOT(ISERROR(B1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="notContainsErrors" dxfId="5" priority="3">
-      <formula>NOT(ISERROR(C1))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2327,7 +2284,7 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -3386,7 +3343,7 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>86</v>
@@ -21298,10 +21255,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
         <v>111</v>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_newsample.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_newsample.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D5BE85-F3B5-B34C-B79A-9422B56EA063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA8CD06-B044-244F-A5B6-B02414281DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="9" r:id="rId1"/>
     <sheet name="Animals" sheetId="1" r:id="rId2"/>
     <sheet name="Samples" sheetId="2" r:id="rId3"/>
-    <sheet name="Sequences" sheetId="8" r:id="rId4"/>
+    <sheet name="MS Runs" sheetId="8" r:id="rId4"/>
     <sheet name="Peak Annotation Files" sheetId="6" r:id="rId5"/>
     <sheet name="Peak Annotation Details" sheetId="7" r:id="rId6"/>
     <sheet name="Treatments" sheetId="3" r:id="rId7"/>
     <sheet name="Tissues" sheetId="4" r:id="rId8"/>
     <sheet name="Infusions" sheetId="5" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -917,22 +917,151 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Courier"/>
             <family val="2"/>
           </rPr>
-          <t>The MSRun Sequence associated with the Sample Name, Sample Data Header, and/or
-mzXML File Name on this row.
-Comma-delimited string combining the values from these columns from the
-Sequences sheet in this order:
-- Operator
-- LC Protocol Name
-- Instrument
-- Date
-Select a 'Sequence Name' from the dropdowns in this column.  The dropdowns are
-populated by the 'Sequence Name' column in the 'Sequences' sheet, so if the
-dropdowns are empty, add rows to the 'Sequences' sheet.
-Optional.</t>
+          <t xml:space="preserve">The MSRun Sequence associated with the Sample Name, Sample Data Header, and/or
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">mzXML File Name on this row.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Comma-delimited string combining the values from these columns from the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sequences sheet in this order:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Operator
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- LC Protocol Name
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Instrument
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">- Date
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Select a 'Sequence Name' from the dropdowns in this column.  The dropdowns are
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">populated by the 'Sequence Name' column in the 'Sequences' sheet, so if the
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">dropdowns are empty, add rows to the 'Sequences' sheet.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Courier"/>
+            <family val="2"/>
+          </rPr>
+          <t>Optional.</t>
         </r>
       </text>
     </comment>
@@ -1180,7 +1309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="124">
   <si>
     <t>Infusate</t>
   </si>
@@ -1528,9 +1657,6 @@
     <t>File Format</t>
   </si>
   <si>
-    <t>Default Sequence Name</t>
-  </si>
-  <si>
     <t>DataRepo/data/tests/small_obob/small_obob_maven_6eaas_inf_req_prefix.xlsx</t>
   </si>
   <si>
@@ -1550,9 +1676,6 @@
   </si>
   <si>
     <t>Peak Annotation File Name</t>
-  </si>
-  <si>
-    <t>Sequence Name</t>
   </si>
   <si>
     <t>Skip</t>
@@ -1592,6 +1715,15 @@
   </si>
   <si>
     <t>newsample</t>
+  </si>
+  <si>
+    <t>MS Run Name</t>
+  </si>
+  <si>
+    <t>Default MS Run</t>
+  </si>
+  <si>
+    <t>MS Run</t>
   </si>
 </sst>
 </file>
@@ -1816,7 +1948,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{F34B0BC4-0474-5D47-93C7-FE64BAA63C00}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -1980,32 +2112,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <border>
@@ -2238,7 +2344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C61425D-F23C-6F4F-8608-324522C2138E}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -2247,7 +2353,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14">
       <c r="A1" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>10</v>
@@ -2258,7 +2364,7 @@
         <v>85</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +3449,7 @@
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1">
       <c r="A2" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>86</v>
@@ -21107,7 +21213,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10F537B-37AF-BD4C-9F83-7496A78BD954}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -21120,39 +21228,39 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14">
       <c r="A1" s="22" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -21181,7 +21289,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -21198,18 +21306,18 @@
         <v>100</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
+      <c r="B2" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -21221,7 +21329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2DCCD-0178-094D-9522-9414A02DC911}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -21235,36 +21345,36 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14">
       <c r="A1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="22" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
-      </c>
       <c r="E2" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_newsample.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_newsample.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA8CD06-B044-244F-A5B6-B02414281DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB78117-622B-7243-88F5-D83045A793D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Study" sheetId="9" r:id="rId1"/>
     <sheet name="Animals" sheetId="1" r:id="rId2"/>
     <sheet name="Samples" sheetId="2" r:id="rId3"/>
-    <sheet name="MS Runs" sheetId="8" r:id="rId4"/>
+    <sheet name="Sequences" sheetId="8" r:id="rId4"/>
     <sheet name="Peak Annotation Files" sheetId="6" r:id="rId5"/>
     <sheet name="Peak Annotation Details" sheetId="7" r:id="rId6"/>
     <sheet name="Treatments" sheetId="3" r:id="rId7"/>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_newsample.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_newsample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB78117-622B-7243-88F5-D83045A793D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E49FA-1EC1-564F-AE23-690601E0885B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="9" r:id="rId1"/>
@@ -1720,10 +1720,10 @@
     <t>MS Run Name</t>
   </si>
   <si>
-    <t>Default MS Run</t>
+    <t>MS Run</t>
   </si>
   <si>
-    <t>MS Run</t>
+    <t>Default Sequence</t>
   </si>
 </sst>
 </file>
@@ -21213,7 +21213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10F537B-37AF-BD4C-9F83-7496A78BD954}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -21288,7 +21288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D077B6-035D-754F-89D0-AD0330B7C482}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -21306,7 +21306,7 @@
         <v>100</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -21357,7 +21357,7 @@
         <v>107</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>108</v>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_newsample.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_newsample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3E49FA-1EC1-564F-AE23-690601E0885B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83648C5F-8C0B-E04C-B8CA-70463BCFD84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="9" r:id="rId1"/>
@@ -1717,13 +1717,13 @@
     <t>newsample</t>
   </si>
   <si>
-    <t>MS Run Name</t>
-  </si>
-  <si>
     <t>MS Run</t>
   </si>
   <si>
     <t>Default Sequence</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
   </si>
 </sst>
 </file>
@@ -21213,7 +21213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10F537B-37AF-BD4C-9F83-7496A78BD954}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -21228,7 +21228,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14">
       <c r="A1" s="22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>110</v>
@@ -21288,7 +21288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D077B6-035D-754F-89D0-AD0330B7C482}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -21306,7 +21306,7 @@
         <v>100</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -21357,7 +21357,7 @@
         <v>107</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>108</v>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_newsample.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_newsample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83648C5F-8C0B-E04C-B8CA-70463BCFD84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA0C17-B868-2A46-8711-4C48A22EBDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study" sheetId="9" r:id="rId1"/>
@@ -1717,13 +1717,13 @@
     <t>newsample</t>
   </si>
   <si>
-    <t>MS Run</t>
-  </si>
-  <si>
     <t>Default Sequence</t>
   </si>
   <si>
     <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>Sequence</t>
   </si>
 </sst>
 </file>
@@ -21213,7 +21213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10F537B-37AF-BD4C-9F83-7496A78BD954}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -21228,7 +21228,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14">
       <c r="A1" s="22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>110</v>
@@ -21306,7 +21306,7 @@
         <v>100</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -21329,8 +21329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD2DCCD-0178-094D-9522-9414A02DC911}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -21357,7 +21357,7 @@
         <v>107</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>108</v>

--- a/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_newsample.xlsx
+++ b/DataRepo/data/tests/small_obob/small_obob_animal_and_sample_table_newsample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-LOCAL/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/small_obob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA0C17-B868-2A46-8711-4C48A22EBDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB62958-5C30-4C4B-8E3D-BD5952785EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12180" yWindow="1520" windowWidth="29900" windowHeight="20220" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1309,7 +1309,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="125">
   <si>
     <t>Infusate</t>
   </si>
@@ -1724,6 +1724,9 @@
   </si>
   <si>
     <t>Sequence</t>
+  </si>
+  <si>
+    <t>PREFIX_newsample</t>
   </si>
 </sst>
 </file>
@@ -21330,7 +21333,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -21365,7 +21368,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="20" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>120</v>
